--- a/xlsx/北大西洋_intext.xlsx
+++ b/xlsx/北大西洋_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="944">
   <si>
     <t>北大西洋</t>
   </si>
@@ -29,7 +29,7 @@
     <t>北冰洋</t>
   </si>
   <si>
-    <t>政策_政策_美國_北大西洋</t>
+    <t>政策_政策_美国_北大西洋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E6%8F%90%E6%96%AF</t>
   </si>
   <si>
-    <t>亞特蘭提斯</t>
+    <t>亚特兰提斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E8%98%AD</t>
   </si>
   <si>
-    <t>格陵蘭</t>
+    <t>格陵兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%9F%A6%E5%B0%94%E8%A7%92</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
   </si>
   <si>
-    <t>揚馬延島</t>
+    <t>扬马延岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%8C%B9%E6%AC%A1%E5%8D%91%E5%B0%94%E6%A0%B9%E7%BE%A4%E5%B2%9B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E5%B0%94%E8%BE%B0%E8%A7%92</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E6%94%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>巴倫支海</t>
+    <t>巴伦支海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%BB%B4%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
@@ -227,9 +227,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
-    <t>欧洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
   </si>
   <si>
@@ -299,55 +296,52 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比里亞</t>
+    <t>利比里亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BE%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法羅群島</t>
+    <t>法罗群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>大不列顛島</t>
+    <t>大不列颠岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛爾蘭島</t>
+    <t>爱尔兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B3%B6</t>
   </si>
   <si>
-    <t>科西嘉島</t>
+    <t>科西嘉岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E4%B8%81%E5%B0%BC%E4%BA%9E%E5%B3%B6</t>
   </si>
   <si>
-    <t>薩丁尼亞島</t>
+    <t>萨丁尼亚岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B3%B6</t>
   </si>
   <si>
-    <t>西西里島</t>
+    <t>西西里岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>克里特島</t>
+    <t>克里特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%B2%9B</t>
@@ -359,49 +353,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速群島</t>
+    <t>亚速群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>加那利群島</t>
+    <t>加那利群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>大安地列斯群島</t>
+    <t>大安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%AE%89%E5%9C%B0%E5%88%97%E6%96%AF%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>小安地列斯群島</t>
+    <t>小安地列斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94</t>
   </si>
   <si>
-    <t>百慕達</t>
+    <t>百慕达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子島</t>
+    <t>爱德华王子岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>紐芬蘭島</t>
+    <t>纽芬兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7_(%E5%A4%A7%E8%A5%BF%E6%B4%8B)</t>
@@ -413,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波羅的海</t>
+    <t>波罗的海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%96%AF%E9%96%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>比斯開灣</t>
+    <t>比斯开湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%B9%BE</t>
@@ -443,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3</t>
   </si>
   <si>
-    <t>墨西哥灣</t>
+    <t>墨西哥湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%8A%AC%E7%81%A3</t>
   </si>
   <si>
-    <t>巴芬灣</t>
+    <t>巴芬湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%8A%A0%E7%89%B9%E6%B5%B7%E5%B3%A1</t>
@@ -467,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>英吉利海峽</t>
+    <t>英吉利海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BE%85%E9%99%80%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>直布羅陀海峽</t>
+    <t>直布罗陀海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E6%B5%B7%E5%B3%A1</t>
@@ -485,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>黑海海峽</t>
+    <t>黑海海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A1%E6%B4%9B%E6%96%AF%E6%B5%B7%E5%B3%A1</t>
@@ -509,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>佛羅里達海峽</t>
+    <t>佛罗里达海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E5%B3%B6%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>貝爾島海峽</t>
+    <t>贝尔岛海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%B7%B1%E6%B5%8B%E9%87%8F</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>山脈</t>
+    <t>山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B%E4%B8%AD%E6%B4%8B%E8%84%8A</t>
@@ -557,55 +551,55 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E5%B9%B3%E9%A0%82%E5%B1%B1</t>
   </si>
   <si>
-    <t>海底平頂山</t>
+    <t>海底平顶山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%BA%9D</t>
   </si>
   <si>
-    <t>海溝</t>
+    <t>海沟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%80%AB%E6%8F%90%E6%81%A9%E6%B5%B7%E6%BA%9D</t>
   </si>
   <si>
-    <t>羅倫提恩海溝</t>
+    <t>罗伦提恩海沟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A1%91%E5%BE%B7%E9%9F%8B%E5%A5%87%E6%B5%B7%E6%BA%9D</t>
   </si>
   <si>
-    <t>南桑德韋奇海溝</t>
+    <t>南桑德韦奇海沟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%9B%BC%E4%BB%80%E6%B5%B7%E6%BA%9D</t>
   </si>
   <si>
-    <t>羅曼什海溝</t>
+    <t>罗曼什海沟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%A3%9A</t>
   </si>
   <si>
-    <t>大陸棚</t>
+    <t>大陆棚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E7%A9%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>沉積物</t>
+    <t>沉积物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E6%BA%90</t>
   </si>
   <si>
-    <t>陸源</t>
+    <t>陆源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B5%B7%E6%B2%89%E7%A9%8D%E7%89%A9</t>
   </si>
   <si>
-    <t>遠海沉積物</t>
+    <t>远海沉积物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%9F</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%8C%96%E4%BD%9C%E7%94%A8</t>
   </si>
   <si>
-    <t>風化作用</t>
+    <t>风化作用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%B1%B1</t>
@@ -635,43 +629,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%9C%9F</t>
   </si>
   <si>
-    <t>紅土</t>
+    <t>红土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%B1%E7%90%83%E8%9F%B2</t>
   </si>
   <si>
-    <t>抱球蟲</t>
+    <t>抱球虫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%BC%E8%B6%B3%E9%A1%9E</t>
   </si>
   <si>
-    <t>翼足類</t>
+    <t>翼足类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%97%BB%E8%BB%9F%E6%B3%A5</t>
   </si>
   <si>
-    <t>矽藻軟泥</t>
+    <t>矽藻软泥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3%E7%B5%90%E6%A0%B8</t>
   </si>
   <si>
-    <t>錳結核</t>
+    <t>锰结核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣流</t>
+    <t>墨西哥湾流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%BC%82%E6%B5%81</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E7%99%BC</t>
   </si>
   <si>
-    <t>蒸發</t>
+    <t>蒸发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -785,43 +779,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%A1%8A</t>
   </si>
   <si>
-    <t>水塊</t>
+    <t>水块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E6%B7%B1%E5%B1%A4%E6%B0%B4</t>
   </si>
   <si>
-    <t>北大西洋深層水</t>
+    <t>北大西洋深层水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E5%BA%95%E5%B1%A4%E6%B0%B4</t>
   </si>
   <si>
-    <t>南極底層水</t>
+    <t>南极底层水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
   </si>
   <si>
-    <t>馬尾藻海</t>
+    <t>马尾藻海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E9%B0%BB%E9%B1%BA</t>
   </si>
   <si>
-    <t>歐洲鰻鱺</t>
+    <t>欧洲鳗鲡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E9%B0%BB%E9%B1%BA</t>
   </si>
   <si>
-    <t>美洲鰻鱺</t>
+    <t>美洲鳗鲡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%87%8C%E5%A5%A7%E5%88%A9%E5%8A%9B</t>
   </si>
   <si>
-    <t>科里奧利力</t>
+    <t>科里奥利力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90</t>
@@ -833,49 +827,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%A2%A8</t>
   </si>
   <si>
-    <t>信風</t>
+    <t>信风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%86%B1%E5%AE%B9</t>
   </si>
   <si>
-    <t>比熱容</t>
+    <t>比热容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%81%A3%E6%9A%96%E6%B5%81</t>
   </si>
   <si>
-    <t>墨西哥灣暖流</t>
+    <t>墨西哥湾暖流</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>不列顛群島</t>
+    <t>不列颠群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E5%A4%A7%E6%B7%BA%E7%81%98</t>
   </si>
   <si>
-    <t>紐芬蘭大淺灘</t>
+    <t>纽芬兰大浅滩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%B6%E9%A2%A8</t>
   </si>
   <si>
-    <t>颶風</t>
+    <t>飓风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>盤古大陸</t>
+    <t>盘古大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E4%BA%BA</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%91%E6%88%98%E8%80%85%E5%8F%B7%E7%A7%91%E5%AD%A6%E8%80%83%E5%AF%9F</t>
@@ -899,31 +893,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴哈馬</t>
+    <t>巴哈马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9D%B1%E6%96%B9%E8%99%9F</t>
   </si>
   <si>
-    <t>大東方號</t>
+    <t>大东方号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9D%A6%E5%B0%BC%E5%85%8B%E5%8F%B7</t>
@@ -941,19 +935,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%89%87</t>
   </si>
   <si>
-    <t>飛艇</t>
+    <t>飞艇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E7%99%BD</t>
   </si>
   <si>
-    <t>查爾斯·林白</t>
+    <t>查尔斯·林白</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A2%85%E8%8E%89%E4%BA%9E%C2%B7%E5%9F%83%E7%88%BE%E5%93%88%E7%89%B9</t>
   </si>
   <si>
-    <t>阿梅莉亞·埃爾哈特</t>
+    <t>阿梅莉亚·埃尔哈特</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_d%27Aboville</t>
@@ -995,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞速爾群島</t>
+    <t>亚速尔群岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tori_Murden</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BE%85%E6%99%AE</t>
   </si>
   <si>
-    <t>瓜德羅普</t>
+    <t>瓜德罗普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E7%A7%AF%E5%B2%A9</t>
@@ -1019,25 +1013,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B1%88%E9%AD%9A</t>
   </si>
   <si>
-    <t>鱈魚</t>
+    <t>鳕鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%B7%9A%E9%B1%88</t>
   </si>
   <si>
-    <t>黑線鱈</t>
+    <t>黑线鳕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AF%A1%E9%AD%9A</t>
   </si>
   <si>
-    <t>鯡魚</t>
+    <t>鲱鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AF%96%E9%AD%9A</t>
   </si>
   <si>
-    <t>鯖魚</t>
+    <t>鲭鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%96%AF%E7%A7%91%E8%88%8D</t>
@@ -1049,31 +1043,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B1%88%E9%AD%9A%E8%A7%92</t>
   </si>
   <si>
-    <t>鱈魚角</t>
+    <t>鳕鱼角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>愛爾蘭海</t>
+    <t>爱尔兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B0%BB</t>
   </si>
   <si>
-    <t>鰻</t>
+    <t>鳗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%9D%A6</t>
   </si>
   <si>
-    <t>龍蝦</t>
+    <t>龙虾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AF%A8</t>
   </si>
   <si>
-    <t>鯨</t>
+    <t>鲸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E6%B1%A1</t>
@@ -1085,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E5%BB%A2%E6%A3%84%E7%89%A9</t>
   </si>
   <si>
-    <t>海洋廢棄物</t>
+    <t>海洋废弃物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B6%BA</t>
   </si>
   <si>
-    <t>海嶺</t>
+    <t>海岭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%84%8A</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%9C%9F%E8%89%A6%E9%9A%8A</t>
   </si>
   <si>
-    <t>本土艦隊</t>
+    <t>本土舰队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Home_Fleet</t>
@@ -1265,13 +1259,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1301,13 +1295,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%AE%B6%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>皇家空軍</t>
+    <t>皇家空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
@@ -1337,39 +1328,33 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B_(%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0)</t>
   </si>
   <si>
-    <t>同盟國 (第二次世界大戰)</t>
+    <t>同盟国 (第二次世界大战)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%90%89%E5%88%A9%E6%B5%B7%E5%B3%A1</t>
   </si>
   <si>
-    <t>英吉利海峡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>自由法國</t>
+    <t>自由法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E6%B5%81%E4%BA%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -1379,13 +1364,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -1403,31 +1388,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E7%BF%94%E6%A9%9F</t>
   </si>
   <si>
-    <t>滑翔機</t>
+    <t>滑翔机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>空中戰爭</t>
+    <t>空中战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>海軍</t>
+    <t>海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
+    <t>军舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>英格蘭</t>
+    <t>英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E8%8C%A8%E8%8C%85%E6%96%AF</t>
@@ -1439,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E7%89%B9%E4%B8%B9</t>
@@ -1457,7 +1442,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%89%B9%E8%A1%9B%E6%99%AE</t>
   </si>
   <si>
-    <t>安特衛普</t>
+    <t>安特卫普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF</t>
@@ -1469,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>波爾多</t>
+    <t>波尔多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC</t>
@@ -1493,37 +1478,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
+    <t>开普敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AB%BE%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>布宜諾斯艾利斯</t>
+    <t>布宜诺斯艾利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7</t>
   </si>
   <si>
-    <t>里約熱內盧</t>
+    <t>里约热内卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>薩爾瓦多 (巴西)</t>
+    <t>萨尔瓦多 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%E6%B3%95%E5%85%8B%E6%96%AF</t>
@@ -1535,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>雷克雅維克</t>
+    <t>雷克雅维克</t>
   </si>
   <si>
     <t>https://de.wikipedia.org/wiki/Nordatlantik</t>
@@ -1625,19 +1610,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1739,13 +1724,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1817,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -1847,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -1865,7 +1850,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -1877,7 +1862,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -1907,25 +1892,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
+    <t>赤道多雨气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -1943,13 +1928,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
+    <t>热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -1961,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
+    <t>副热带季风气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
@@ -1979,7 +1964,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%BC%8F%E6%B0%94%E5%80%99</t>
@@ -2015,7 +2000,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
+    <t>极地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
@@ -2033,19 +2018,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
+    <t>极地冰原气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -2069,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -2093,7 +2078,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%92%99%E6%A3%AE%E7%81%A3</t>
   </si>
   <si>
-    <t>阿蒙森灣</t>
+    <t>阿蒙森湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BC%97%E7%89%B9%E6%B5%B7</t>
@@ -2123,13 +2108,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%A7%86%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>弗拉姆海峽</t>
+    <t>弗拉姆海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%A5%BF%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>布西亞灣</t>
+    <t>布西亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E6%8B%89%E6%B5%B7</t>
@@ -2141,7 +2126,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>卡拉海峽</t>
+    <t>卡拉海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%99%AE%E6%8D%B7%E5%A4%AB%E6%B5%B7</t>
@@ -2171,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%BE%B7%E7%88%BE%E6%B5%B7</t>
   </si>
   <si>
-    <t>旺德爾海</t>
+    <t>旺德尔海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%B5%B7</t>
@@ -2219,13 +2204,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BD%97%E7%9A%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>波罗的海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%9A%84%E5%B0%BC%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>波的尼亞灣</t>
+    <t>波的尼亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E4%BD%A9%E5%88%87%E6%B9%BE</t>
@@ -2249,7 +2231,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>凱爾特海</t>
+    <t>凯尔特海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E6%B9%BE</t>
@@ -2261,13 +2243,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E7%81%A3</t>
   </si>
   <si>
-    <t>芬蘭灣</t>
+    <t>芬兰湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BF%81%E7%81%A3</t>
   </si>
   <si>
-    <t>利翁灣</t>
+    <t>利翁湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E6%B9%BE</t>
@@ -2279,13 +2261,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E6%B9%BE</t>
   </si>
   <si>
-    <t>墨西哥湾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>聖羅倫斯灣</t>
+    <t>圣罗伦斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E6%B9%BE</t>
@@ -2303,7 +2282,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>詹姆斯灣</t>
+    <t>詹姆斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
@@ -2315,7 +2294,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%88%BE%E6%98%8E%E5%8E%84%E6%B5%B7</t>
   </si>
   <si>
-    <t>伊爾明厄海</t>
+    <t>伊尔明厄海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B8%83%E6%8B%89%E5%A4%9A%E6%B5%B7</t>
@@ -2333,13 +2312,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利比亞海</t>
+    <t>利比亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%8F%A4%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
   </si>
   <si>
-    <t>利古里亞海</t>
+    <t>利古里亚海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
@@ -2351,31 +2330,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E6%89%98%E7%BF%81%E6%B5%B7</t>
   </si>
   <si>
-    <t>米爾托翁海</t>
+    <t>米尔托翁海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BE%E8%97%BB%E6%B5%B7</t>
   </si>
   <si>
-    <t>马尾藻海</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>奧蘭海</t>
+    <t>奥兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%80%9F%E6%B5%B7</t>
   </si>
   <si>
-    <t>亞速海</t>
+    <t>亚速海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%B5%B7</t>
@@ -2417,7 +2393,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E7%81%A3</t>
   </si>
   <si>
-    <t>孟加拉灣</t>
+    <t>孟加拉湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E4%B8%81%E6%B9%BE</t>
@@ -2441,13 +2417,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%A0%E5%A5%87%E7%81%A3</t>
   </si>
   <si>
-    <t>嘠奇灣</t>
+    <t>嘠奇湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC%E7%81%A3</t>
   </si>
   <si>
-    <t>阿曼灣</t>
+    <t>阿曼湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%BC%8A%E5%A3%AB%E6%B9%BE</t>
@@ -2549,19 +2525,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>台灣海峽</t>
+    <t>台湾海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E6%B5%B7%E5%B3%BD</t>
   </si>
   <si>
-    <t>巴士海峽</t>
+    <t>巴士海峡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%98%AD%E6%B5%B7</t>
   </si>
   <si>
-    <t>塞蘭海</t>
+    <t>塞兰海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9%E6%B5%B7</t>
@@ -2603,19 +2579,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A5%94%E5%A1%94%E5%88%A9%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>卡奔塔利亞灣</t>
+    <t>卡奔塔利亚湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E5%A1%9E%E5%8D%A1%E7%81%A3</t>
   </si>
   <si>
-    <t>豐塞卡灣</t>
+    <t>丰塞卡湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B%E7%81%A3</t>
   </si>
   <si>
-    <t>泰國灣</t>
+    <t>泰国湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E6%B9%BE</t>
@@ -2627,7 +2603,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%A6%AC%E9%BB%91%E6%8B%89%E6%B5%B7</t>
   </si>
   <si>
-    <t>哈馬黑拉海</t>
+    <t>哈马黑拉海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%AA%E5%93%87%E6%B5%B7</t>
@@ -2639,7 +2615,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%B5%B7</t>
   </si>
   <si>
-    <t>科羅海</t>
+    <t>科罗海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9B%E5%8A%A0%E9%94%A1%E6%B5%B7%E5%B3%A1</t>
@@ -2651,13 +2627,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%AD%AF%E5%8F%A4%E6%B5%B7</t>
   </si>
   <si>
-    <t>馬魯古海</t>
+    <t>马鲁古海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E7%BE%85%E7%81%A3</t>
   </si>
   <si>
-    <t>莫羅灣</t>
+    <t>莫罗湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%B5%B7</t>
@@ -2693,13 +2669,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%A8%E6%88%B6%E5%85%A7%E6%B5%B7</t>
   </si>
   <si>
-    <t>瀨戶內海</t>
+    <t>濑户内海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%B8%83%E5%BB%B6%E6%B5%B7</t>
   </si>
   <si>
-    <t>錫布延海</t>
+    <t>锡布延海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E6%B5%B7</t>
@@ -2753,19 +2729,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E6%B5%B7</t>
   </si>
   <si>
-    <t>英聯邦海</t>
+    <t>英联邦海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E8%88%AA%E5%93%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>宇航員海</t>
+    <t>宇航员海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%96%AF%E6%B5%B7</t>
   </si>
   <si>
-    <t>戴維斯海</t>
+    <t>戴维斯海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%B0%94%E7%BB%B4%E5%B0%94%E6%B5%B7</t>
@@ -2789,7 +2765,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%91%9F%E7%88%BE-%E6%8B%89%E6%A3%AE%E6%B5%B7</t>
   </si>
   <si>
-    <t>里瑟爾-拉森海</t>
+    <t>里瑟尔-拉森海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A3%AE%E6%B5%B7</t>
@@ -2819,19 +2795,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%B9%E6%B5%B7</t>
   </si>
   <si>
-    <t>鹹海</t>
+    <t>咸海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%A1%E6%B5%B7</t>
   </si>
   <si>
-    <t>裡海</t>
+    <t>里海</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%88%BE%E9%A0%93%E6%B9%96</t>
   </si>
   <si>
-    <t>索爾頓湖</t>
+    <t>索尔顿湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E6%B5%B7</t>
@@ -2843,7 +2819,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2861,7 +2837,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -4227,7 +4203,7 @@
         <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="G35" t="n">
         <v>4</v>
@@ -4253,10 +4229,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>16</v>
@@ -4282,10 +4258,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -4311,10 +4287,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>4</v>
@@ -4340,10 +4316,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -4369,10 +4345,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -4398,10 +4374,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -4427,10 +4403,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -4456,10 +4432,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4485,10 +4461,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -4514,10 +4490,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4543,10 +4519,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -4572,10 +4548,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4601,10 +4577,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -4630,10 +4606,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4659,10 +4635,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -4688,10 +4664,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4717,10 +4693,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4746,10 +4722,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -4775,10 +4751,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4804,10 +4780,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4833,10 +4809,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4862,10 +4838,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4891,10 +4867,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4920,10 +4896,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4949,10 +4925,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4978,10 +4954,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5007,10 +4983,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5036,10 +5012,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5065,10 +5041,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -5094,10 +5070,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>6</v>
@@ -5123,10 +5099,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -5152,10 +5128,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5181,10 +5157,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -5210,10 +5186,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5239,10 +5215,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -5268,10 +5244,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -5297,10 +5273,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -5355,10 +5331,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5384,10 +5360,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5413,10 +5389,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5442,10 +5418,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5471,10 +5447,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5500,10 +5476,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5529,10 +5505,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -5558,10 +5534,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5587,10 +5563,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5616,10 +5592,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5645,10 +5621,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5674,10 +5650,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5703,10 +5679,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5732,10 +5708,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -5761,10 +5737,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5790,10 +5766,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5819,10 +5795,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5848,10 +5824,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5877,10 +5853,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
@@ -5935,10 +5911,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5964,10 +5940,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5993,10 +5969,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6022,10 +5998,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -6051,10 +6027,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>8</v>
@@ -6080,10 +6056,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -6109,10 +6085,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -6138,10 +6114,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -6167,10 +6143,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6196,10 +6172,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6225,10 +6201,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6254,10 +6230,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6283,10 +6259,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6312,10 +6288,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -6341,10 +6317,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -6370,10 +6346,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6399,10 +6375,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>5</v>
@@ -6428,10 +6404,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6457,10 +6433,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6486,10 +6462,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6515,10 +6491,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6544,10 +6520,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6573,10 +6549,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6602,10 +6578,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6631,10 +6607,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6660,10 +6636,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6689,10 +6665,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6718,10 +6694,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6747,10 +6723,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6776,10 +6752,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6805,10 +6781,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6834,10 +6810,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6863,10 +6839,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -6892,10 +6868,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6921,10 +6897,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6950,10 +6926,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>21</v>
@@ -6979,10 +6955,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -7008,10 +6984,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7037,10 +7013,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7066,10 +7042,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>6</v>
@@ -7095,10 +7071,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7124,10 +7100,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7153,10 +7129,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -7182,10 +7158,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -7211,10 +7187,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -7240,10 +7216,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7269,10 +7245,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -7298,10 +7274,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7327,10 +7303,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -7356,10 +7332,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -7385,10 +7361,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7414,10 +7390,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7443,10 +7419,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -7472,10 +7448,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7501,10 +7477,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7530,10 +7506,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7559,10 +7535,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7588,10 +7564,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7617,10 +7593,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7646,10 +7622,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7675,10 +7651,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7704,10 +7680,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7733,10 +7709,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7762,10 +7738,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7791,10 +7767,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7820,10 +7796,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7849,10 +7825,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7878,10 +7854,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7907,10 +7883,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7936,10 +7912,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7965,10 +7941,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7994,10 +7970,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8023,10 +7999,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -8052,10 +8028,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8081,10 +8057,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8110,10 +8086,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8139,10 +8115,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8168,10 +8144,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8197,10 +8173,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8226,10 +8202,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8255,10 +8231,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8284,10 +8260,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8313,10 +8289,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -8342,10 +8318,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8371,10 +8347,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8400,10 +8376,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8429,10 +8405,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8458,10 +8434,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8487,10 +8463,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8516,10 +8492,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8545,10 +8521,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8574,10 +8550,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>9</v>
@@ -8603,10 +8579,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8661,10 +8637,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>26</v>
@@ -8690,10 +8666,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8719,10 +8695,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>6</v>
@@ -8748,10 +8724,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8777,10 +8753,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8806,10 +8782,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8835,10 +8811,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8864,10 +8840,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -8893,10 +8869,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>30</v>
@@ -8922,10 +8898,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>27</v>
@@ -8951,10 +8927,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>3</v>
@@ -8980,10 +8956,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9009,10 +8985,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9038,10 +9014,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9067,10 +9043,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9096,10 +9072,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9125,10 +9101,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -9154,10 +9130,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>4</v>
@@ -9183,10 +9159,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>4</v>
@@ -9212,10 +9188,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -9241,10 +9217,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9270,10 +9246,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -9299,10 +9275,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -9328,10 +9304,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9357,10 +9333,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9386,10 +9362,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9415,10 +9391,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -9444,10 +9420,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9473,10 +9449,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9502,10 +9478,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9531,10 +9507,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="G218" t="n">
         <v>12</v>
@@ -9560,10 +9536,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9589,10 +9565,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9618,10 +9594,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9647,10 +9623,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9676,10 +9652,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9705,10 +9681,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -9734,10 +9710,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F225" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9763,10 +9739,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>442</v>
+        <v>148</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9792,10 +9768,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>5</v>
@@ -9821,10 +9797,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F228" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9850,10 +9826,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F229" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9879,10 +9855,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F230" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9908,10 +9884,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9937,10 +9913,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9966,10 +9942,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9995,10 +9971,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>4</v>
@@ -10024,10 +10000,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10053,10 +10029,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10082,10 +10058,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10111,10 +10087,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>4</v>
@@ -10140,10 +10116,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10169,10 +10145,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10198,10 +10174,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10227,10 +10203,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10256,10 +10232,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10285,10 +10261,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10314,10 +10290,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10343,10 +10319,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F246" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10372,10 +10348,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F247" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10401,10 +10377,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F248" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10430,10 +10406,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F249" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10459,10 +10435,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F250" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10488,10 +10464,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F251" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10517,10 +10493,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F252" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10546,10 +10522,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10575,10 +10551,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10604,10 +10580,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10633,10 +10609,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10662,10 +10638,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10691,10 +10667,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10720,10 +10696,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10749,10 +10725,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G260" t="n">
         <v>16</v>
@@ -10778,10 +10754,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10807,10 +10783,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10836,10 +10812,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10865,10 +10841,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10894,10 +10870,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10923,10 +10899,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10952,10 +10928,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10981,10 +10957,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11010,10 +10986,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11039,10 +11015,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11068,10 +11044,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11097,10 +11073,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11126,10 +11102,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11155,10 +11131,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11184,10 +11160,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11213,10 +11189,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11242,10 +11218,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11271,10 +11247,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11300,10 +11276,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11329,10 +11305,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11358,10 +11334,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11387,10 +11363,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11416,10 +11392,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11445,10 +11421,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11474,10 +11450,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11503,10 +11479,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11532,10 +11508,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11561,10 +11537,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11590,10 +11566,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11619,10 +11595,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -11648,10 +11624,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -11677,10 +11653,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11706,10 +11682,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11735,10 +11711,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11764,10 +11740,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11793,10 +11769,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G296" t="n">
         <v>17</v>
@@ -11822,10 +11798,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G297" t="n">
         <v>8</v>
@@ -11851,10 +11827,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -11880,10 +11856,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F299" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11909,10 +11885,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F300" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11938,10 +11914,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F301" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11996,10 +11972,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12025,10 +12001,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12054,10 +12030,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12083,10 +12059,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12112,10 +12088,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12141,10 +12117,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12170,10 +12146,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12199,10 +12175,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12228,10 +12204,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12257,10 +12233,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12286,10 +12262,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12315,10 +12291,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G314" t="n">
         <v>3</v>
@@ -12344,10 +12320,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12373,10 +12349,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>80</v>
+      </c>
+      <c r="F316" t="s">
         <v>81</v>
-      </c>
-      <c r="F316" t="s">
-        <v>82</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12402,10 +12378,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12431,10 +12407,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12460,10 +12436,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12489,10 +12465,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12518,10 +12494,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12547,10 +12523,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="G322" t="n">
         <v>8</v>
@@ -12576,10 +12552,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12605,10 +12581,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="G324" t="n">
         <v>4</v>
@@ -12634,10 +12610,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G325" t="n">
         <v>11</v>
@@ -12663,10 +12639,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12692,10 +12668,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12721,10 +12697,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12750,10 +12726,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12779,10 +12755,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12808,10 +12784,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12837,10 +12813,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12866,10 +12842,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12895,10 +12871,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="G334" t="n">
         <v>8</v>
@@ -12924,10 +12900,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12953,10 +12929,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12982,10 +12958,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13011,10 +12987,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13040,10 +13016,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13069,10 +13045,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13098,10 +13074,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13127,10 +13103,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G342" t="n">
         <v>2</v>
@@ -13156,10 +13132,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13185,10 +13161,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13214,10 +13190,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13243,10 +13219,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13272,10 +13248,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13301,10 +13277,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13330,10 +13306,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13359,10 +13335,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13388,10 +13364,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13417,10 +13393,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13446,10 +13422,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13475,10 +13451,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13504,10 +13480,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13533,10 +13509,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13562,10 +13538,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13591,10 +13567,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13620,10 +13596,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13649,10 +13625,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13707,10 +13683,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F362" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13736,10 +13712,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F363" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13765,10 +13741,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F364" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13794,10 +13770,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F365" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13823,10 +13799,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F366" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13852,10 +13828,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F367" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13881,10 +13857,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F368" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13910,10 +13886,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F369" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13939,10 +13915,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F370" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13968,10 +13944,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F371" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13997,10 +13973,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F372" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14026,10 +14002,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F373" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14055,10 +14031,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F374" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14084,10 +14060,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F375" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -14113,10 +14089,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F376" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14142,10 +14118,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F377" t="s">
-        <v>734</v>
+        <v>130</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14171,10 +14147,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F378" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14200,10 +14176,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F379" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14229,10 +14205,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F380" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14258,10 +14234,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F381" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14287,10 +14263,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F382" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14316,10 +14292,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F383" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14345,10 +14321,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F384" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14374,10 +14350,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F385" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14403,10 +14379,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F386" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14432,10 +14408,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14461,10 +14437,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>140</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14490,10 +14466,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14519,10 +14495,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14548,10 +14524,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F391" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14577,10 +14553,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F392" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14606,10 +14582,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F393" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14635,10 +14611,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F394" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14664,10 +14640,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F395" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14693,10 +14669,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F396" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14722,10 +14698,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F397" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14751,10 +14727,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F398" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14780,10 +14756,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F399" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14809,10 +14785,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F400" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14838,10 +14814,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F401" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14867,10 +14843,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F402" t="s">
-        <v>782</v>
+        <v>260</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14896,10 +14872,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F403" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14925,10 +14901,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F404" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14954,10 +14930,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F405" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14983,10 +14959,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F406" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15012,10 +14988,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F407" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15041,10 +15017,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F408" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15070,10 +15046,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F409" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15099,10 +15075,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F410" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15128,10 +15104,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F411" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15157,10 +15133,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F412" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15186,10 +15162,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F413" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15215,10 +15191,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F414" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15244,10 +15220,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F415" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15273,10 +15249,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F416" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15302,10 +15278,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F417" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15331,10 +15307,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F418" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15360,10 +15336,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F419" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15389,10 +15365,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F420" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15418,10 +15394,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="F421" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15447,10 +15423,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F422" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15476,10 +15452,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F423" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15505,10 +15481,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F424" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15534,10 +15510,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F425" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15563,10 +15539,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F426" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15592,10 +15568,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F427" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G427" t="n">
         <v>2</v>
@@ -15621,10 +15597,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="F428" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15650,10 +15626,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="F429" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15679,10 +15655,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F430" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15708,10 +15684,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F431" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15737,10 +15713,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F432" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15766,10 +15742,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F433" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15795,10 +15771,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F434" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15824,10 +15800,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F435" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15853,10 +15829,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F436" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15882,10 +15858,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F437" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15911,10 +15887,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F438" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15940,10 +15916,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F439" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15969,10 +15945,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F440" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15998,10 +15974,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F441" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16027,10 +16003,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F442" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16056,10 +16032,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F443" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16085,10 +16061,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F444" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16114,10 +16090,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="F445" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16143,10 +16119,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="F446" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16172,10 +16148,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="F447" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16201,10 +16177,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="F448" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16230,10 +16206,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F449" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16259,10 +16235,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="F450" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16288,10 +16264,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F451" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16317,10 +16293,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F452" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16346,10 +16322,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F453" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16375,10 +16351,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F454" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16404,10 +16380,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F455" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16433,10 +16409,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="F456" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16462,10 +16438,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="F457" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16491,10 +16467,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="F458" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16520,10 +16496,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="F459" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16549,10 +16525,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F460" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16578,10 +16554,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F461" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16607,10 +16583,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F462" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16636,10 +16612,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="F463" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16665,10 +16641,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="F464" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16694,10 +16670,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="F465" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16723,10 +16699,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F466" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16752,10 +16728,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="F467" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16781,10 +16757,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F468" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16810,10 +16786,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F469" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="G469" t="n">
         <v>3</v>
@@ -16839,10 +16815,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F470" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16868,10 +16844,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F471" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16897,10 +16873,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F472" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -16926,10 +16902,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F473" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16955,10 +16931,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F474" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16984,10 +16960,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F475" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17013,10 +16989,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F476" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17042,10 +17018,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F477" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17071,10 +17047,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F478" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17100,10 +17076,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F479" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17129,10 +17105,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="F480" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17158,10 +17134,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F481" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17187,10 +17163,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F482" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="G482" t="n">
         <v>3</v>
@@ -17216,10 +17192,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F483" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17245,10 +17221,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F484" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17274,10 +17250,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F485" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17303,10 +17279,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F486" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G486" t="n">
         <v>7</v>
@@ -17332,10 +17308,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F487" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
